--- a/dist/document/dest/2020/10/doctors/144.xlsx
+++ b/dist/document/dest/2020/10/doctors/144.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>266</v>
       </c>
-      <c r="C2" s="1">
-        <v>16970800</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>86</v>
       </c>
-      <c r="C3" s="1">
-        <v>14534000</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>14</v>
       </c>
-      <c r="C4" s="1">
-        <v>52290</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>80</v>
       </c>
-      <c r="C5" s="1">
-        <v>576400</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>5093</v>
       </c>
-      <c r="C6" s="1">
-        <v>145659800</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
-        <v>25440</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>420</v>
       </c>
-      <c r="C8" s="1">
-        <v>6468000</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>190</v>
       </c>
-      <c r="C9" s="1">
-        <v>26429000</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>909</v>
       </c>
-      <c r="C10" s="1">
-        <v>8899110</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>15</v>
       </c>
-      <c r="C11" s="1">
-        <v>17250</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -514,9 +484,6 @@
       <c r="B12" s="1">
         <v>30</v>
       </c>
-      <c r="C12" s="1">
-        <v>75900</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -525,9 +492,6 @@
       <c r="B13" s="1">
         <v>1</v>
       </c>
-      <c r="C13" s="1">
-        <v>267500</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -536,9 +500,6 @@
       <c r="B14" s="1">
         <v>60</v>
       </c>
-      <c r="C14" s="1">
-        <v>448800</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -547,9 +508,6 @@
       <c r="B15" s="1">
         <v>28</v>
       </c>
-      <c r="C15" s="1">
-        <v>163240</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -558,9 +516,6 @@
       <c r="B16" s="1">
         <v>534</v>
       </c>
-      <c r="C16" s="1">
-        <v>8634780</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -569,9 +524,6 @@
       <c r="B17" s="1">
         <v>9</v>
       </c>
-      <c r="C17" s="1">
-        <v>635400</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -580,9 +532,6 @@
       <c r="B18" s="1">
         <v>613</v>
       </c>
-      <c r="C18" s="1">
-        <v>4720100</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -591,9 +540,6 @@
       <c r="B19" s="1">
         <v>138</v>
       </c>
-      <c r="C19" s="1">
-        <v>1442100</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -602,9 +548,6 @@
       <c r="B20" s="1">
         <v>54</v>
       </c>
-      <c r="C20" s="1">
-        <v>24570</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -613,9 +556,6 @@
       <c r="B21" s="1">
         <v>915</v>
       </c>
-      <c r="C21" s="1">
-        <v>4735125</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -624,9 +564,6 @@
       <c r="B22" s="1">
         <v>225</v>
       </c>
-      <c r="C22" s="1">
-        <v>994500</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -635,9 +572,6 @@
       <c r="B23" s="1">
         <v>176</v>
       </c>
-      <c r="C23" s="1">
-        <v>6776000</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -646,9 +580,6 @@
       <c r="B24" s="1">
         <v>1084</v>
       </c>
-      <c r="C24" s="1">
-        <v>20270800</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -658,7 +589,7 @@
         <v>10946</v>
       </c>
       <c r="C25" s="1">
-        <v>268820905</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/144.xlsx
+++ b/dist/document/dest/2020/10/doctors/144.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,199 +402,961 @@
         <v>AmiGyno 200ml</v>
       </c>
       <c r="B2" s="1">
-        <v>266</v>
+        <v>121</v>
+      </c>
+      <c r="C2" s="1">
+        <v>7719800</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Baifem K (Baicalin,vogonin)</v>
+        <v>AmiGyno 200ml</v>
       </c>
       <c r="B3" s="1">
-        <v>86</v>
+        <v>15</v>
+      </c>
+      <c r="C3" s="1">
+        <v>957000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Bisolota F.C  (Bisoprolol 5mg)</v>
+        <v>AmiGyno 200ml</v>
       </c>
       <c r="B4" s="1">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>638000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Camoas (Flavoxat 200mg)</v>
+        <v>AmiGyno 200ml</v>
       </c>
       <c r="B5" s="1">
-        <v>80</v>
+        <v>20</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1276000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Canvey (Metronidazole, chloramphenicol, dexamethasone acetate, nystatin)</v>
+        <v>AmiGyno 200ml</v>
       </c>
       <c r="B6" s="1">
-        <v>5093</v>
+        <v>17</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1084600</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Cataflam 25 (Diclofenac kali 25mg)</v>
+        <v>AmiGyno 200ml</v>
       </c>
       <c r="B7" s="1">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="C7" s="1">
+        <v>446600</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Clatab (Clarithromycin 500mg)</v>
+        <v>AmiGyno 200ml</v>
       </c>
       <c r="B8" s="1">
-        <v>420</v>
+        <v>18</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1148400</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Crysan Silk (Lactoserum, acid lactic, sodium lactate)</v>
+        <v>AmiGyno 200ml</v>
       </c>
       <c r="B9" s="1">
-        <v>190</v>
+        <v>18</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1148400</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Duphaston (Dydrogesterone 10mg)</v>
+        <v>AmiGyno 200ml</v>
       </c>
       <c r="B10" s="1">
-        <v>909</v>
+        <v>19</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1212200</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Flagyl (Metronidazole) 250mg</v>
+        <v>AmiGyno 200ml</v>
       </c>
       <c r="B11" s="1">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1212200</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Gluphakaps (Metformin 850mg)</v>
+        <v>Baifem K (Baicalin,vogonin)</v>
       </c>
       <c r="B12" s="1">
         <v>30</v>
       </c>
+      <c r="C12" s="1">
+        <v>5070000</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Hemopran (Hemorrhoidai, anti-varicose)</v>
+        <v>Camoas (Flavoxat 200mg)</v>
       </c>
       <c r="B13" s="1">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="C13" s="1">
+        <v>288200</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Livosil (Silymarin 140mg)</v>
+        <v>Canvey (Metronidazole, chloramphenicol, dexamethasone acetate, nystatin)</v>
       </c>
       <c r="B14" s="1">
-        <v>60</v>
+        <v>204</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5834400</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Losatec H (Losartan 50mg, hydrochlorothiazide 12.5mg0</v>
+        <v>Canvey (Metronidazole, chloramphenicol, dexamethasone acetate, nystatin)</v>
       </c>
       <c r="B15" s="1">
-        <v>28</v>
+        <v>143</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4089800</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Lucass 200 (Cefpodoxime)</v>
+        <v>Canvey (Metronidazole, chloramphenicol, dexamethasone acetate, nystatin)</v>
       </c>
       <c r="B16" s="1">
-        <v>534</v>
+        <v>282</v>
+      </c>
+      <c r="C16" s="1">
+        <v>8065200</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v xml:space="preserve">Marvelon </v>
+        <v>Canvey (Metronidazole, chloramphenicol, dexamethasone acetate, nystatin)</v>
       </c>
       <c r="B17" s="1">
-        <v>9</v>
+        <v>199</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5691400</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Metronizol Neo (Metronidazole, neomycin sulfate, nystatin)</v>
+        <v>Canvey (Metronidazole, chloramphenicol, dexamethasone acetate, nystatin)</v>
       </c>
       <c r="B18" s="1">
-        <v>613</v>
+        <v>205</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5863000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Polygynax (Neomycin, polymycin, nystatin)</v>
+        <v>Canvey (Metronidazole, chloramphenicol, dexamethasone acetate, nystatin)</v>
       </c>
       <c r="B19" s="1">
-        <v>138</v>
+        <v>66</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1887600</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v xml:space="preserve">Prednisone </v>
+        <v>Canvey (Metronidazole, chloramphenicol, dexamethasone acetate, nystatin)</v>
       </c>
       <c r="B20" s="1">
-        <v>54</v>
+        <v>2849</v>
+      </c>
+      <c r="C20" s="1">
+        <v>81481400</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Seromin (Vitamin A, C, E)</v>
+        <v>Canvey (Metronidazole, chloramphenicol, dexamethasone acetate, nystatin)</v>
       </c>
       <c r="B21" s="1">
-        <v>915</v>
+        <v>282</v>
+      </c>
+      <c r="C21" s="1">
+        <v>8065200</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Transamin 500mg (Tranexamic)</v>
+        <v>Canvey (Metronidazole, chloramphenicol, dexamethasone acetate, nystatin)</v>
       </c>
       <c r="B22" s="1">
-        <v>225</v>
+        <v>204</v>
+      </c>
+      <c r="C22" s="1">
+        <v>5834400</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Upetal (Fluconazol 150mg)</v>
+        <v>Canvey (Metronidazole, chloramphenicol, dexamethasone acetate, nystatin)</v>
       </c>
       <c r="B23" s="1">
-        <v>176</v>
+        <v>222</v>
+      </c>
+      <c r="C23" s="1">
+        <v>6349200</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Vinaflam (Cefuroxime 500mg)</v>
+        <v>Cataflam 25 (Diclofenac kali 25mg)</v>
       </c>
       <c r="B24" s="1">
-        <v>1084</v>
+        <v>6</v>
+      </c>
+      <c r="C24" s="1">
+        <v>25440</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
+        <v>Cataflam 25 (Diclofenac kali 25mg)</v>
+      </c>
+      <c r="B25" s="1">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1">
+        <v>42400</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Clatab (Clarithromycin 500mg)</v>
+      </c>
+      <c r="B26" s="1">
+        <v>60</v>
+      </c>
+      <c r="C26" s="1">
+        <v>924000</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Clatab (Clarithromycin 500mg)</v>
+      </c>
+      <c r="B27" s="1">
+        <v>40</v>
+      </c>
+      <c r="C27" s="1">
+        <v>616000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Crysan Silk (Lactoserum, acid lactic, sodium lactate)</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>139100</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Crysan Silk (Lactoserum, acid lactic, sodium lactate)</v>
+      </c>
+      <c r="B29" s="1">
+        <v>83</v>
+      </c>
+      <c r="C29" s="1">
+        <v>11545300</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Crysan Silk (Lactoserum, acid lactic, sodium lactate)</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
+        <v>139100</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Doxycyclin 100mg</v>
+      </c>
+      <c r="B31" s="1">
+        <v>20</v>
+      </c>
+      <c r="C31" s="1">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Duphaston (Dydrogesterone 10mg)</v>
+      </c>
+      <c r="B32" s="1">
+        <v>40</v>
+      </c>
+      <c r="C32" s="1">
+        <v>391600</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Duphaston (Dydrogesterone 10mg)</v>
+      </c>
+      <c r="B33" s="1">
+        <v>20</v>
+      </c>
+      <c r="C33" s="1">
+        <v>195800</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Duphaston (Dydrogesterone 10mg)</v>
+      </c>
+      <c r="B34" s="1">
+        <v>15</v>
+      </c>
+      <c r="C34" s="1">
+        <v>146850</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Duphaston (Dydrogesterone 10mg)</v>
+      </c>
+      <c r="B35" s="1">
+        <v>40</v>
+      </c>
+      <c r="C35" s="1">
+        <v>391600</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Duphaston (Dydrogesterone 10mg)</v>
+      </c>
+      <c r="B36" s="1">
+        <v>40</v>
+      </c>
+      <c r="C36" s="1">
+        <v>391600</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Duphaston (Dydrogesterone 10mg)</v>
+      </c>
+      <c r="B37" s="1">
+        <v>420</v>
+      </c>
+      <c r="C37" s="1">
+        <v>4111800</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Duphaston (Dydrogesterone 10mg)</v>
+      </c>
+      <c r="B38" s="1">
+        <v>40</v>
+      </c>
+      <c r="C38" s="1">
+        <v>391600</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Duphaston (Dydrogesterone 10mg)</v>
+      </c>
+      <c r="B39" s="1">
+        <v>70</v>
+      </c>
+      <c r="C39" s="1">
+        <v>685300</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Duphaston (Dydrogesterone 10mg)</v>
+      </c>
+      <c r="B40" s="1">
+        <v>50</v>
+      </c>
+      <c r="C40" s="1">
+        <v>489500</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v xml:space="preserve">Ferrovit (Iron, folic acid, vitamin B12) </v>
+      </c>
+      <c r="B41" s="1">
+        <v>50</v>
+      </c>
+      <c r="C41" s="1">
+        <v>70500</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Lucass 200 (Cefpodoxime)</v>
+      </c>
+      <c r="B42" s="1">
+        <v>40</v>
+      </c>
+      <c r="C42" s="1">
+        <v>646800</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Lucass 200 (Cefpodoxime)</v>
+      </c>
+      <c r="B43" s="1">
+        <v>20</v>
+      </c>
+      <c r="C43" s="1">
+        <v>323400</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Lucass 200 (Cefpodoxime)</v>
+      </c>
+      <c r="B44" s="1">
+        <v>100</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1617000</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Lucass 200 (Cefpodoxime)</v>
+      </c>
+      <c r="B45" s="1">
+        <v>120</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1940400</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Lucass 200 (Cefpodoxime)</v>
+      </c>
+      <c r="B46" s="1">
+        <v>254</v>
+      </c>
+      <c r="C46" s="1">
+        <v>4107180</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Lucass 200 (Cefpodoxime)</v>
+      </c>
+      <c r="B47" s="1">
+        <v>40</v>
+      </c>
+      <c r="C47" s="1">
+        <v>646800</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v xml:space="preserve">Marvelon </v>
+      </c>
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1">
+        <v>70600</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v xml:space="preserve">Marvelon </v>
+      </c>
+      <c r="B49" s="1">
+        <v>3</v>
+      </c>
+      <c r="C49" s="1">
+        <v>211800</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v xml:space="preserve">Marvelon </v>
+      </c>
+      <c r="B50" s="1">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1">
+        <v>70600</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v xml:space="preserve">Marvelon </v>
+      </c>
+      <c r="B51" s="1">
+        <v>5</v>
+      </c>
+      <c r="C51" s="1">
+        <v>353000</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v xml:space="preserve">Marvelon </v>
+      </c>
+      <c r="B52" s="1">
+        <v>2</v>
+      </c>
+      <c r="C52" s="1">
+        <v>141200</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v xml:space="preserve">Marvelon </v>
+      </c>
+      <c r="B53" s="1">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1">
+        <v>70600</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Polygynax (Neomycin, polymycin, nystatin)</v>
+      </c>
+      <c r="B54" s="1">
+        <v>10</v>
+      </c>
+      <c r="C54" s="1">
+        <v>104500</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v xml:space="preserve">Prednisone </v>
+      </c>
+      <c r="B55" s="1">
+        <v>14</v>
+      </c>
+      <c r="C55" s="1">
+        <v>6370</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v xml:space="preserve">Prednisone </v>
+      </c>
+      <c r="B56" s="1">
+        <v>34</v>
+      </c>
+      <c r="C56" s="1">
+        <v>15470</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Seromin (Vitamin A, C, E)</v>
+      </c>
+      <c r="B57" s="1">
+        <v>90</v>
+      </c>
+      <c r="C57" s="1">
+        <v>465750</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Seromin (Vitamin A, C, E)</v>
+      </c>
+      <c r="B58" s="1">
+        <v>20</v>
+      </c>
+      <c r="C58" s="1">
+        <v>103500</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Seromin (Vitamin A, C, E)</v>
+      </c>
+      <c r="B59" s="1">
+        <v>15</v>
+      </c>
+      <c r="C59" s="1">
+        <v>77625</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Seromin (Vitamin A, C, E)</v>
+      </c>
+      <c r="B60" s="1">
+        <v>30</v>
+      </c>
+      <c r="C60" s="1">
+        <v>155250</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Seromin (Vitamin A, C, E)</v>
+      </c>
+      <c r="B61" s="1">
+        <v>180</v>
+      </c>
+      <c r="C61" s="1">
+        <v>931500</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>Seromin (Vitamin A, C, E)</v>
+      </c>
+      <c r="B62" s="1">
+        <v>560</v>
+      </c>
+      <c r="C62" s="1">
+        <v>2898000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Seromin (Vitamin A, C, E)</v>
+      </c>
+      <c r="B63" s="1">
+        <v>30</v>
+      </c>
+      <c r="C63" s="1">
+        <v>155250</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Seromin (Vitamin A, C, E)</v>
+      </c>
+      <c r="B64" s="1">
+        <v>60</v>
+      </c>
+      <c r="C64" s="1">
+        <v>310500</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Seromin (Vitamin A, C, E)</v>
+      </c>
+      <c r="B65" s="1">
+        <v>30</v>
+      </c>
+      <c r="C65" s="1">
+        <v>155250</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Seromin (Vitamin A, C, E)</v>
+      </c>
+      <c r="B66" s="1">
+        <v>90</v>
+      </c>
+      <c r="C66" s="1">
+        <v>465750</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Transamin 500mg (Tranexamic)</v>
+      </c>
+      <c r="B67" s="1">
+        <v>20</v>
+      </c>
+      <c r="C67" s="1">
+        <v>88400</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Transamin 500mg (Tranexamic)</v>
+      </c>
+      <c r="B68" s="1">
+        <v>30</v>
+      </c>
+      <c r="C68" s="1">
+        <v>132600</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Transamin 500mg (Tranexamic)</v>
+      </c>
+      <c r="B69" s="1">
+        <v>70</v>
+      </c>
+      <c r="C69" s="1">
+        <v>309400</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Transamin 500mg (Tranexamic)</v>
+      </c>
+      <c r="B70" s="1">
+        <v>70</v>
+      </c>
+      <c r="C70" s="1">
+        <v>309400</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Transamin 500mg (Tranexamic)</v>
+      </c>
+      <c r="B71" s="1">
+        <v>40</v>
+      </c>
+      <c r="C71" s="1">
+        <v>176800</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Upetal (Fluconazol 150mg)</v>
+      </c>
+      <c r="B72" s="1">
+        <v>6</v>
+      </c>
+      <c r="C72" s="1">
+        <v>231000</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Upetal (Fluconazol 150mg)</v>
+      </c>
+      <c r="B73" s="1">
+        <v>4</v>
+      </c>
+      <c r="C73" s="1">
+        <v>154000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Upetal (Fluconazol 150mg)</v>
+      </c>
+      <c r="B74" s="1">
+        <v>6</v>
+      </c>
+      <c r="C74" s="1">
+        <v>231000</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Upetal (Fluconazol 150mg)</v>
+      </c>
+      <c r="B75" s="1">
+        <v>6</v>
+      </c>
+      <c r="C75" s="1">
+        <v>231000</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Upetal (Fluconazol 150mg)</v>
+      </c>
+      <c r="B76" s="1">
+        <v>2</v>
+      </c>
+      <c r="C76" s="1">
+        <v>77000</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Upetal (Fluconazol 150mg)</v>
+      </c>
+      <c r="B77" s="1">
+        <v>56</v>
+      </c>
+      <c r="C77" s="1">
+        <v>2156000</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Upetal (Fluconazol 150mg)</v>
+      </c>
+      <c r="B78" s="1">
+        <v>4</v>
+      </c>
+      <c r="C78" s="1">
+        <v>154000</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Upetal (Fluconazol 150mg)</v>
+      </c>
+      <c r="B79" s="1">
+        <v>8</v>
+      </c>
+      <c r="C79" s="1">
+        <v>308000</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>Upetal (Fluconazol 150mg)</v>
+      </c>
+      <c r="B80" s="1">
+        <v>4</v>
+      </c>
+      <c r="C80" s="1">
+        <v>154000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Upetal (Fluconazol 150mg)</v>
+      </c>
+      <c r="B81" s="1">
+        <v>4</v>
+      </c>
+      <c r="C81" s="1">
+        <v>154000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Vinaflam (Cefuroxime 500mg)</v>
+      </c>
+      <c r="B82" s="1">
+        <v>510</v>
+      </c>
+      <c r="C82" s="1">
+        <v>9537000</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Vinaflam (Cefuroxime 500mg)</v>
+      </c>
+      <c r="B83" s="1">
+        <v>120</v>
+      </c>
+      <c r="C83" s="1">
+        <v>2244000</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>Vinaflam (Cefuroxime 500mg)</v>
+      </c>
+      <c r="B84" s="1">
+        <v>80</v>
+      </c>
+      <c r="C84" s="1">
+        <v>1496000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Vinaflam (Cefuroxime 500mg)</v>
+      </c>
+      <c r="B85" s="1">
+        <v>100</v>
+      </c>
+      <c r="C85" s="1">
+        <v>1870000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Vinaflam (Cefuroxime 500mg)</v>
+      </c>
+      <c r="B86" s="1">
+        <v>20</v>
+      </c>
+      <c r="C86" s="1">
+        <v>374000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Vinaflam (Cefuroxime 500mg)</v>
+      </c>
+      <c r="B87" s="1">
+        <v>80</v>
+      </c>
+      <c r="C87" s="1">
+        <v>1496000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
         <v>Tổng cộng</v>
       </c>
-      <c r="B25" s="1">
-        <v>10946</v>
-      </c>
-      <c r="C25" s="1">
-        <v>NaN</v>
+      <c r="B88" s="1">
+        <v>8986</v>
+      </c>
+      <c r="C88" s="1">
+        <v>214009785</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C25"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C88"/>
   </ignoredErrors>
 </worksheet>
 </file>